--- a/prelim/PPI Info (Nepal).xlsx
+++ b/prelim/PPI Info (Nepal).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="221">
   <si>
     <t xml:space="preserve">iso2c</t>
   </si>
@@ -586,6 +586,9 @@
     <t xml:space="preserve">borders.border</t>
   </si>
   <si>
+    <t xml:space="preserve">Borders</t>
+  </si>
+  <si>
     <t xml:space="preserve">national</t>
   </si>
   <si>
@@ -50917,9 +50920,11 @@
       <c r="C2" t="s">
         <v>189</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" t="s">
+        <v>190</v>
+      </c>
       <c r="E2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F2" t="n">
         <v>0.25</v>
@@ -51214,9 +51219,11 @@
       <c r="C3" t="s">
         <v>189</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="s">
+        <v>190</v>
+      </c>
       <c r="E3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -51509,13 +51516,13 @@
         <v>188</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -51808,13 +51815,13 @@
         <v>188</v>
       </c>
       <c r="C5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" t="s">
         <v>192</v>
-      </c>
-      <c r="D5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E5" t="s">
-        <v>191</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -52107,13 +52114,13 @@
         <v>188</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -52406,13 +52413,13 @@
         <v>188</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -52705,13 +52712,13 @@
         <v>188</v>
       </c>
       <c r="C8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -53004,13 +53011,13 @@
         <v>188</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -53303,13 +53310,13 @@
         <v>188</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -53602,13 +53609,13 @@
         <v>188</v>
       </c>
       <c r="C11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -53901,13 +53908,13 @@
         <v>188</v>
       </c>
       <c r="C12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -54200,13 +54207,13 @@
         <v>188</v>
       </c>
       <c r="C13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -54499,13 +54506,13 @@
         <v>188</v>
       </c>
       <c r="C14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D14" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -54798,13 +54805,13 @@
         <v>188</v>
       </c>
       <c r="C15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -55097,13 +55104,13 @@
         <v>188</v>
       </c>
       <c r="C16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -55396,13 +55403,13 @@
         <v>188</v>
       </c>
       <c r="C17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -55695,13 +55702,13 @@
         <v>188</v>
       </c>
       <c r="C18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -55994,13 +56001,13 @@
         <v>188</v>
       </c>
       <c r="C19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -56293,13 +56300,13 @@
         <v>188</v>
       </c>
       <c r="C20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -56592,13 +56599,13 @@
         <v>188</v>
       </c>
       <c r="C21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E21" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -56891,13 +56898,13 @@
         <v>188</v>
       </c>
       <c r="C22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -57190,13 +57197,13 @@
         <v>188</v>
       </c>
       <c r="C23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -57489,13 +57496,13 @@
         <v>188</v>
       </c>
       <c r="C24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -57788,13 +57795,13 @@
         <v>188</v>
       </c>
       <c r="C25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -58087,13 +58094,13 @@
         <v>188</v>
       </c>
       <c r="C26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D26" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -58386,13 +58393,13 @@
         <v>188</v>
       </c>
       <c r="C27" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -58685,13 +58692,13 @@
         <v>188</v>
       </c>
       <c r="C28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D28" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -58984,13 +58991,13 @@
         <v>188</v>
       </c>
       <c r="C29" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D29" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -59283,13 +59290,13 @@
         <v>188</v>
       </c>
       <c r="C30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D30" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E30" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -59582,13 +59589,13 @@
         <v>188</v>
       </c>
       <c r="C31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D31" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
